--- a/Story/4 - Dreamscape/3 - Culinary Dominion/Culinary Dominion.xlsx
+++ b/Story/4 - Dreamscape/3 - Culinary Dominion/Culinary Dominion.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\4 - Dreamscape\3 - Culinary Dominion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40185078-9972-4714-8AFC-E0BC4E8FB4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79462E74-FC3C-4183-9A87-A4D84A6DF541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{155DF1C4-A17F-421B-9DA2-3F182C425BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{155DF1C4-A17F-421B-9DA2-3F182C425BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Culinary Dominion" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Culinary Dominion'!$A$1:$T$169</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4806,9 +4809,6 @@
     <t>征厨房記</t>
   </si>
   <si>
-    <t>정주부 기록</t>
-  </si>
-  <si>
     <t>บันทึกครัวพิชิต</t>
   </si>
   <si>
@@ -4839,9 +4839,6 @@
     <t xml:space="preserve">これは飢餓から始まった戦争だ。\n我々は戦士の名のもとに誓う：キッチンは小さいが、征服必勝。 </t>
   </si>
   <si>
-    <t>이것은 배고픔에서 기인한 전쟁입니다.\n우리는 전사라는 이름으로 맹세합니다: 비록 주방은 작지만, 반드시 승리할 것입니다.</t>
-  </si>
-  <si>
     <t>นี่คือสงครามที่เกิดจากความหิวโหย。\nเราขอสาบานในนามของนักรบ ห้องครัวอาจเล็ก แต่เราจะชนะ</t>
   </si>
   <si>
@@ -4875,9 +4872,6 @@
     <t>異夢視界</t>
   </si>
   <si>
-    <t>이몽시계</t>
-  </si>
-  <si>
     <t>Paysage de rêve</t>
   </si>
   <si>
@@ -5029,13 +5023,22 @@
   </si>
   <si>
     <t>Ai nói sự vinh quang của những ngày xưa không thể quay lại? \nNhìn xem, công nghệ hiện đại đáng ghét, sức mạnh của Roma sẽ chiến thắng mọi thứ!</t>
+  </si>
+  <si>
+    <t>주방 정복기</t>
+  </si>
+  <si>
+    <t>이것은 배고픔에서 시작된 전쟁이다.\n우리는 전사의 이름으로 맹세한다: 주방이 작아도 반드시 승리하리라.</t>
+  </si>
+  <si>
+    <t>이몽세계</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5057,6 +5060,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5082,10 +5091,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5099,9 +5109,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{639403AD-43DE-4F12-A309-6D9BCF39D5A8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5317,68 +5331,68 @@
   <dimension ref="A1:S169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1619</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>1621</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>1622</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>1623</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>1624</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1625</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>1626</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>1627</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>1629</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>1630</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>1631</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>1632</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>1633</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>1634</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>1635</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>1636</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5415,34 +5429,34 @@
       <c r="L2" t="s">
         <v>1588</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>1661</v>
+      </c>
+      <c r="N2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" t="s">
         <v>1589</v>
       </c>
-      <c r="N2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>1590</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>1591</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B3" t="s">
         <v>1593</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1594</v>
       </c>
       <c r="C3" t="s">
         <v>1582</v>
@@ -5454,51 +5468,51 @@
         <v>1583</v>
       </c>
       <c r="F3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H3" t="s">
         <v>1595</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>1596</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>1597</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" t="s">
         <v>1598</v>
       </c>
-      <c r="K3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="N3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" t="s">
         <v>1599</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>1600</v>
       </c>
-      <c r="N3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>1601</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C4" t="s">
         <v>1582</v>
@@ -5510,61 +5524,61 @@
         <v>1583</v>
       </c>
       <c r="F4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I4" t="s">
         <v>1606</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>1607</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>1608</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>1609</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="N4" t="s">
         <v>1610</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>1611</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>1612</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>1613</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>1614</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>1615</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1617</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="B6" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="C6" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D6">
         <v>1885</v>
       </c>
       <c r="E6" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="F6" t="s">
         <v>1584</v>
@@ -5608,58 +5622,58 @@
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="B7" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C7" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D7">
         <v>1885</v>
       </c>
       <c r="E7" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H7" t="s">
         <v>1641</v>
       </c>
-      <c r="F7" t="s">
-        <v>1595</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1643</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="s">
         <v>1644</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>1645</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" t="s">
         <v>1646</v>
       </c>
-      <c r="K7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="R7" t="s">
         <v>1647</v>
       </c>
-      <c r="M7" t="s">
+      <c r="S7" t="s">
         <v>1648</v>
-      </c>
-      <c r="N7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>1649</v>
-      </c>
-      <c r="R7" t="s">
-        <v>1650</v>
-      </c>
-      <c r="S7" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9314,19 +9328,19 @@
     </row>
     <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="B72" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C72" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D72">
         <v>1886</v>
       </c>
       <c r="E72" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="F72" t="s">
         <v>1584</v>
@@ -9370,58 +9384,58 @@
     </row>
     <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="B73" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="C73" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D73">
         <v>1886</v>
       </c>
       <c r="E73" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="F73" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H73" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1655</v>
+      </c>
+      <c r="K73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L73" t="s">
         <v>1656</v>
       </c>
-      <c r="I73" t="s">
+      <c r="M73" t="s">
         <v>1657</v>
       </c>
-      <c r="J73" t="s">
+      <c r="N73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q73" t="s">
         <v>1658</v>
       </c>
-      <c r="K73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="R73" t="s">
         <v>1659</v>
       </c>
-      <c r="M73" t="s">
+      <c r="S73" t="s">
         <v>1660</v>
-      </c>
-      <c r="N73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>1661</v>
-      </c>
-      <c r="R73" t="s">
-        <v>1662</v>
-      </c>
-      <c r="S73" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="74" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
